--- a/flmd_template.xlsx
+++ b/flmd_template.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgLpxNDtCoSD4BOKjgN9Zrqlqvocw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mie4G99Ux69ST+2TPbsVV8itdBxpw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>File_Name</t>
   </si>
@@ -24,18 +24,15 @@
     <t>File_Description</t>
   </si>
   <si>
-    <t>File_Format</t>
-  </si>
-  <si>
-    <t>File_Type/Extension</t>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>UTC_Offset</t>
   </si>
   <si>
     <t>File_Version</t>
   </si>
   <si>
-    <t>Reporting_Format_Name</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>End_Date</t>
   </si>
   <si>
-    <t>UTC_Offset</t>
-  </si>
-  <si>
     <t>Northwest_Latitude_Coordinate</t>
   </si>
   <si>
@@ -60,31 +54,33 @@
     <t>Southeast_Longitude_Coordinate</t>
   </si>
   <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
     <t>Missing_Value_Codes</t>
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Field_Name_Orientation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -106,47 +102,24 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -371,15 +344,17 @@
     <col customWidth="1" min="4" max="4" width="20.25"/>
     <col customWidth="1" min="5" max="5" width="12.0"/>
     <col customWidth="1" min="6" max="6" width="21.75"/>
-    <col customWidth="1" min="7" max="9" width="14.75"/>
-    <col customWidth="1" min="10" max="10" width="10.88"/>
+    <col customWidth="1" min="7" max="8" width="14.75"/>
+    <col customWidth="1" min="9" max="9" width="26.5"/>
+    <col customWidth="1" min="10" max="10" width="28.13"/>
     <col customWidth="1" min="11" max="11" width="25.75"/>
     <col customWidth="1" min="12" max="12" width="26.75"/>
-    <col customWidth="1" min="13" max="13" width="25.63"/>
-    <col customWidth="1" min="14" max="14" width="26.75"/>
+    <col customWidth="1" min="13" max="13" width="18.25"/>
+    <col customWidth="1" min="14" max="14" width="18.13"/>
     <col customWidth="1" min="15" max="15" width="19.0"/>
     <col customWidth="1" min="16" max="16" width="24.63"/>
-    <col customWidth="1" min="17" max="27" width="14.75"/>
+    <col customWidth="1" min="17" max="17" width="21.5"/>
+    <col customWidth="1" min="18" max="27" width="14.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -401,7 +376,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -419,29 +394,21 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1"/>
@@ -454,56 +421,56 @@
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="C14" s="2"/>
+    </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="5"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="5"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="5"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="5"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="5"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="5"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="6"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="5"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="C23" s="5"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="C24" s="5"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="C27" s="7"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="C30" s="5"/>
-    </row>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1"/>
     <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
@@ -1472,8 +1439,6 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
